--- a/doc/projectFiles/Berechnung Kennzahlen für Kostenschätzung.xlsx
+++ b/doc/projectFiles/Berechnung Kennzahlen für Kostenschätzung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>Eingabe</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Abfrage</t>
   </si>
   <si>
-    <t>Anwenderdaten</t>
-  </si>
-  <si>
     <t>mittel</t>
   </si>
   <si>
@@ -48,69 +45,36 @@
     <t>Einflussfaktoren:</t>
   </si>
   <si>
-    <t>Als &lt;MM&gt; will ich eine Veranstaltung anlegen, sodass das Sammeln der Tweets beginnt</t>
-  </si>
-  <si>
     <t>2-1</t>
   </si>
   <si>
-    <t>Als &lt;MM&gt; will ich eine vorhandene Veranstaltung anzeigen</t>
-  </si>
-  <si>
     <t>2-2</t>
   </si>
   <si>
-    <t>Als &lt;MM&gt; will ich eine vorhandene Veranstaltung bearbeiten</t>
-  </si>
-  <si>
     <t>3-1</t>
   </si>
   <si>
-    <t>Als &lt;MM&gt; will ich eine positiv/negativ Sentiment Analyse der Tweets erhalten</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>Als &lt;MM&gt; will ich zu einer bestimmten Veranstaltung gehörende Daten exportieren</t>
-  </si>
-  <si>
     <t>4-1</t>
   </si>
   <si>
-    <t>Als &lt;MM&gt; will ich die vorhandenen Tweets einschränken, sodass nur relevante Tweets analysiert werden</t>
-  </si>
-  <si>
     <t>3-2</t>
   </si>
   <si>
-    <t>Als &lt;MM&gt; will ich verschiedene Darstellungen der analysierten Daten</t>
-  </si>
-  <si>
     <t>4-2</t>
   </si>
   <si>
-    <t>Als &lt;MM&gt; will ich einzelene Tweets manuell ausblenden, sodass diese nicht analysiert werden</t>
-  </si>
-  <si>
     <t>4-3</t>
   </si>
   <si>
-    <t>Als &lt;MM&gt; will ich einzelene Tweets manuell löschen, sodass diese nicht wieder analysiert werden</t>
-  </si>
-  <si>
     <t>4-4</t>
   </si>
   <si>
-    <t>Als &lt;MM&gt; will ich das aktuelle Filterobjekt speichern, sodass ich diese später erneut anwenden kann</t>
-  </si>
-  <si>
     <t>1-5</t>
   </si>
   <si>
-    <t xml:space="preserve">Als &lt;MM&gt; will ich über Tweets informiert werden </t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -121,29 +85,6 @@
   </si>
   <si>
     <t>Summe UFP</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> x 7</t>
-    </r>
   </si>
   <si>
     <r>
@@ -192,39 +133,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x 6</t>
-    </r>
-  </si>
-  <si>
     <t>Datenkommunikation</t>
   </si>
   <si>
@@ -261,9 +169,6 @@
     <t>Berechnung adjusted function points:</t>
   </si>
   <si>
-    <t>Klassifikation</t>
-  </si>
-  <si>
     <t>Wert x = 0,91 + Summe der Skalierungsfaktoren / 100</t>
   </si>
   <si>
@@ -273,9 +178,6 @@
     <t>siehe Tabelle VO SE2 S. 3.25</t>
   </si>
   <si>
-    <t>Erfahrung mit ähnlichen Projekten - niedrig</t>
-  </si>
-  <si>
     <t>Flexibilität vom Kunden - nominal</t>
   </si>
   <si>
@@ -286,21 +188,6 @@
   </si>
   <si>
     <t>E = 2,94 * S[KDSI] hoch x * M</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0,91 + 14,12/100 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1,0512</t>
-    </r>
   </si>
   <si>
     <t>Berechnung Wert M:</t>
@@ -337,6 +224,110 @@
     </r>
   </si>
   <si>
+    <t>Plattformfaktoren - nominal</t>
+  </si>
+  <si>
+    <t>Teamfaktoren - nominal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2,72 x 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,72</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1 PM = 19 Arbeitstage </t>
+  </si>
+  <si>
+    <t>Berechnung Personenmonate nach dem COCOMO Early Design Modell:</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>Abfrabe</t>
+  </si>
+  <si>
+    <t>2 x 4</t>
+  </si>
+  <si>
+    <t>4 x 3</t>
+  </si>
+  <si>
+    <t>1 x 4</t>
+  </si>
+  <si>
+    <t>1 x 7</t>
+  </si>
+  <si>
+    <t>1 x 3</t>
+  </si>
+  <si>
+    <t>Pruduct backlog</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x 6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AFP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (adjusted function points) = UFP x VAF = 54 x 0,88 =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 47,52</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -356,7 +347,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 57,20 FP x 50 LOC = 2860/1000 = 2,86</t>
+      <t xml:space="preserve"> 47,52 FP x 50 LOC = 2376/1000 = 2,38</t>
+    </r>
+  </si>
+  <si>
+    <t>Erfahrung mit ähnlichen Projekten - mittel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x = 0,91 + 12,88/100 = </t>
     </r>
     <r>
       <rPr>
@@ -366,33 +365,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>1,0388</t>
     </r>
   </si>
   <si>
-    <t>Plattformfaktoren - nominal</t>
-  </si>
-  <si>
-    <t>Teamfaktoren - nominal</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">2,72 x 1 = </t>
+      <t xml:space="preserve">E [PM] = 2,94 * 2,461 * 2,72 = </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <b/>
+        <sz val="16"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2,72</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">E [PM] = 2,94 * 3,018 * 2,72 = </t>
+      <t>19</t>
     </r>
     <r>
       <rPr>
@@ -403,52 +391,84 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>24,13 Personenmonate</t>
+      <t>,68 Personenmonate</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AFP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (adjusted function points) = UFP x VAF = 65 x 0,88 = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>57,20</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1 PM = 19 Arbeitstage </t>
-  </si>
-  <si>
-    <t>Berechnung Personenmonate nach dem COCOMO Early Design Modell:</t>
+    <t xml:space="preserve">Als &lt;MM&gt; will ich eine Veranstaltung anlegen, sodass das Sammeln </t>
+  </si>
+  <si>
+    <t>Als &lt;MM&gt; will ich zu einer bestimmten Veranstaltung gehörende</t>
+  </si>
+  <si>
+    <t>sodass nur relevante Tweets analysiert werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als &lt;MM&gt; will ich die vorhandenen Tweets einschränken, </t>
+  </si>
+  <si>
+    <t>sodass diese nicht analysiert werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als &lt;MM&gt; will ich einzelene Tweets manuell ausblenden, </t>
+  </si>
+  <si>
+    <t>sodass diese nicht wieder analysiert werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als &lt;MM&gt; will ich einzelene Tweets manuell löschen, </t>
+  </si>
+  <si>
+    <t>sodass ich diese später erneut anwenden kann.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als &lt;MM&gt; will ich das aktuelle Filterobjekt speichern, </t>
+  </si>
+  <si>
+    <t>Sentimentanalyse bestimmen können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als &lt;MM&gt; will ich eigene Keywords für die positiv / negative </t>
+  </si>
+  <si>
+    <t xml:space="preserve">um bestimmte Parameter zu übernehmen, aber die </t>
+  </si>
+  <si>
+    <t>ursprüngliche Veranstaltung nicht zu verändern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als &lt;MM&gt; will ich vorhandene Veranstaltungen klonen, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als &lt;MM&gt; will ich eine positiv/negative Sentimentanalyse </t>
+  </si>
+  <si>
+    <t>der Tweets beginnt.</t>
+  </si>
+  <si>
+    <t>Als &lt;MM&gt; will ich eine vorhandene Veranstaltung anzeigen.</t>
+  </si>
+  <si>
+    <t>Als &lt;MM&gt; will ich eine vorhandene Veranstaltung bearbeiten.</t>
+  </si>
+  <si>
+    <t>der Tweets erhalten.</t>
+  </si>
+  <si>
+    <t>Daten exportieren.</t>
+  </si>
+  <si>
+    <t>Als &lt;MM&gt; will ich verschiedene Darstellungen der analysierten Daten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als &lt;MM&gt; will ich über Tweets informiert werden. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -483,13 +503,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -564,6 +577,29 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -602,7 +638,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -646,36 +682,100 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="101">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -697,6 +797,35 @@
     <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -718,9 +847,55 @@
     <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -733,31 +908,271 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF4F81BD"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF4F81BD"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF4F81BD"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A3:D3" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A3:D3" headerRowCount="0" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <tableColumns count="4">
-    <tableColumn id="1" name="Spalte1"/>
-    <tableColumn id="2" name="Spalte2"/>
-    <tableColumn id="3" name="Spalte3"/>
-    <tableColumn id="4" name="Spalte4"/>
+    <tableColumn id="1" name="Spalte1" dataDxfId="16"/>
+    <tableColumn id="2" name="Spalte2" dataDxfId="15"/>
+    <tableColumn id="3" name="Spalte3" dataDxfId="14"/>
+    <tableColumn id="4" name="Spalte4" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A5:D28" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Spalte1" headerRowDxfId="10" dataDxfId="9"/>
+    <tableColumn id="2" name="Spalte2" headerRowDxfId="8" dataDxfId="7"/>
+    <tableColumn id="3" name="Spalte3" dataDxfId="6"/>
+    <tableColumn id="4" name="Spalte4" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="E12" headerRowCount="0" insertRow="1" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Spalte1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A4:E11" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="Spalte1"/>
-    <tableColumn id="2" name="Spalte2" dataDxfId="3"/>
-    <tableColumn id="3" name="Spalte3" dataDxfId="2"/>
-    <tableColumn id="4" name="Spalte4" dataDxfId="1"/>
-    <tableColumn id="5" name="Spalte5" dataDxfId="0"/>
+    <tableColumn id="2" name="Spalte2" dataDxfId="4"/>
+    <tableColumn id="3" name="Spalte3" dataDxfId="3"/>
+    <tableColumn id="4" name="Spalte4" dataDxfId="2"/>
+    <tableColumn id="5" name="Spalte5" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A2:B19" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Spalte1" headerRowDxfId="0"/>
+    <tableColumn id="2" name="Spalte2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1085,197 +1500,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="79.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="53.5" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" customWidth="1"/>
     <col min="12" max="12" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="B1" s="11" t="s">
-        <v>49</v>
+      <c r="B1" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B8" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="D8" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D16" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="D18" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B22" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="16"/>
+      <c r="B24" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1290,7 +1836,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1299,109 +1845,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="11" t="s">
-        <v>47</v>
+      <c r="A1" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="7"/>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7">
-        <v>16</v>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="5">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
-        <v>10</v>
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
-        <v>4</v>
+      <c r="B8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8">
-        <v>35</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="12">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="10">
         <f>SUM(E6:E9)</f>
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1423,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1434,32 +1981,24 @@
     <col min="1" max="1" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18">
-      <c r="A1" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18">
-      <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
+    <row r="2" spans="1:2" ht="18">
+      <c r="A2" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1467,7 +2006,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1475,7 +2014,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1483,23 +2022,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1507,30 +2046,42 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="2">
-        <f>SUM(B6:B13)</f>
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="2">
+        <f>SUM(B7:B14)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18">
-      <c r="A18" t="s">
-        <v>71</v>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18">
+      <c r="A19" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1543,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1553,13 +2104,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18">
-      <c r="A1" s="10" t="s">
-        <v>73</v>
+      <c r="A1" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1567,7 +2118,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1575,40 +2126,40 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18">
-      <c r="A9" s="10" t="s">
-        <v>60</v>
+      <c r="A9" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B15">
-        <v>4.96</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>3.04</v>
@@ -1616,7 +2167,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>2.83</v>
@@ -1624,36 +2175,36 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="5">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3">
         <v>3.29</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19">
         <f>SUM(B15:B18)</f>
-        <v>14.120000000000001</v>
+        <v>12.879999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18">
-      <c r="A22" s="10" t="s">
-        <v>59</v>
+      <c r="A22" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="6" t="s">
-        <v>61</v>
+      <c r="A24" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B26">
         <v>2.72</v>
@@ -1661,7 +2212,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1669,7 +2220,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1677,7 +2228,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -1685,17 +2236,17 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="20">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
